--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F3F6D0-F438-4E78-8E67-EBEDE8B82F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{5F4301E9-07B5-4837-B16C-EFBE181AC1F6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
+    <sheet name="备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="204">
   <si>
     <t>Comment</t>
   </si>
@@ -571,27 +566,979 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LM1117IMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED(0.94,12864,RGB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si1024X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金升阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏晶单片机，stcmcu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISHAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没定，确定再说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨码开关，Tyco Electronics，ADF系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BSS138</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LM1117IMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED(0.94,12864,RGB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Si1024X</t>
+    <t>ON，安森美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，数字隔离器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，RS485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，DAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个四个部分都有外接的连接器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的通道基本都是差分线，增强抗干扰能力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源是隔离型的。输入为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9-36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，标准为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LM1117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供电，非隔离，注意铺地。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DCDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块转隔离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AD7124-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DCDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块转隔离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>±15V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC5753</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RS485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通讯部分由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADM28582</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的辅助隔离电源管脚输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各芯片的布局走线，一定要参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>datasheet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LM1117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>散热铜皮应不小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5mm*5mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仪器分为相互隔离的四部分：电源，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，通讯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分，使用了兼容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等协议的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC8742</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4-20mAZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电流输出时的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通讯。不需要单独电源</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一个单独的小板子，它与主板的连接，自定义转接插针。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尺寸有宽度要求，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20mmMAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为限，受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OLED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响。若使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块主板，宽度要增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供电电源输入是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每通道是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每通道是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，通讯是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的（实用是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。以连接端子来看，得两块板子。连接器在找，估计得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，双板</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +1569,33 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -649,7 +1623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -681,13 +1655,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +1714,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,7 +1793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -842,7 +1845,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1036,33 +2039,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123F4F89-DC8A-411D-81E6-80103DB33DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.2109375" customWidth="1"/>
-    <col min="6" max="6" width="30.640625" style="4"/>
-    <col min="7" max="7" width="7.35546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="4"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>165</v>
       </c>
@@ -1080,7 +2083,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +2101,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +2120,7 @@
       <c r="F3" s="11"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +2138,7 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +2156,7 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>169</v>
       </c>
@@ -1170,8 +2173,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1189,7 +2195,7 @@
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24.95" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +2213,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>171</v>
       </c>
@@ -1224,8 +2230,11 @@
         <v>6</v>
       </c>
       <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.95" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -1242,8 +2251,11 @@
         <v>6</v>
       </c>
       <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.95" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1260,8 +2272,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.95" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -1278,8 +2293,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -1296,8 +2314,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.95" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -1314,8 +2335,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -1332,8 +2356,11 @@
         <v>12</v>
       </c>
       <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
@@ -1350,8 +2377,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1369,9 +2399,9 @@
       </c>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>51</v>
@@ -1386,8 +2416,11 @@
         <v>6</v>
       </c>
       <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +2438,7 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="24.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1423,7 +2456,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="24.95" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
@@ -1441,7 +2474,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="24.95" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1459,7 +2492,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>172</v>
       </c>
@@ -1478,8 +2511,11 @@
       <c r="F23" s="13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1497,7 +2533,7 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="24.95" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -1515,7 +2551,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="24.95" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
@@ -1533,7 +2569,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="24.95" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
@@ -1551,7 +2587,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="24.95" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1569,7 +2605,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="24.95" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -1587,7 +2623,7 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="24.95" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -1605,9 +2641,9 @@
       </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>89</v>
@@ -1624,8 +2660,11 @@
       <c r="F31" s="13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
@@ -1642,8 +2681,11 @@
         <v>3</v>
       </c>
       <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24.95" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
@@ -1660,8 +2702,11 @@
         <v>1</v>
       </c>
       <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24.95" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>94</v>
       </c>
@@ -1679,7 +2724,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="24.95" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>98</v>
       </c>
@@ -1697,7 +2742,7 @@
       </c>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="24.95" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -1715,9 +2760,9 @@
       </c>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="24.95" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>104</v>
@@ -1732,8 +2777,11 @@
         <v>1</v>
       </c>
       <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24.95" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -1751,7 +2799,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="24.95" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -1769,7 +2817,7 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="24.95" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -1787,7 +2835,7 @@
       </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="24.95" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>111</v>
       </c>
@@ -1805,7 +2853,7 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="24.95" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
@@ -1823,7 +2871,7 @@
       </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="24.95" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
@@ -1841,7 +2889,7 @@
       </c>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="24.95" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
@@ -1859,7 +2907,7 @@
       </c>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="24.95" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
@@ -1877,7 +2925,7 @@
       </c>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="24.95" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>121</v>
       </c>
@@ -1895,7 +2943,7 @@
       </c>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="24.95" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>123</v>
       </c>
@@ -1913,7 +2961,7 @@
       </c>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="24.95" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>125</v>
       </c>
@@ -1931,7 +2979,7 @@
       </c>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="24.95" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>127</v>
       </c>
@@ -1949,7 +2997,7 @@
       </c>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="24.95" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>131</v>
       </c>
@@ -1967,9 +3015,9 @@
       </c>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>134</v>
@@ -1984,8 +3032,11 @@
         <v>6</v>
       </c>
       <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>136</v>
       </c>
@@ -2002,8 +3053,11 @@
         <v>1</v>
       </c>
       <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="24.95" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>139</v>
       </c>
@@ -2021,7 +3075,7 @@
       </c>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="24.95" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>142</v>
       </c>
@@ -2039,7 +3093,7 @@
       </c>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="24.95" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>144</v>
       </c>
@@ -2057,7 +3111,7 @@
       </c>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="24.95" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>146</v>
       </c>
@@ -2075,7 +3129,7 @@
       </c>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="24.95" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>148</v>
       </c>
@@ -2093,7 +3147,7 @@
       </c>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="24.95" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
@@ -2111,7 +3165,7 @@
       </c>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="24.95" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>153</v>
       </c>
@@ -2129,7 +3183,7 @@
       </c>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>156</v>
       </c>
@@ -2146,8 +3200,11 @@
         <v>1</v>
       </c>
       <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="24.95" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>158</v>
       </c>
@@ -2165,7 +3222,7 @@
       </c>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="24.95" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>158</v>
       </c>
@@ -2183,7 +3240,7 @@
       </c>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>163</v>
       </c>
@@ -2200,8 +3257,11 @@
         <v>1</v>
       </c>
       <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="24.95" customHeight="1">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
@@ -2213,4 +3273,124 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="10" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="18">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17">
+        <v>2.1</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1971664A-5C6B-4EEB-9325-89AC53249D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22152" windowHeight="13176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="216">
   <si>
     <t>Comment</t>
   </si>
@@ -1364,10 +1358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1574,14 +1564,30 @@
   </si>
   <si>
     <t>无，仅有ADuM240D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设计成两块板子，要考虑DAC输出部分即VIOUT的复用，即这些功能电路放置在一块板子上，并且可以被其他功能电路替换，如输出采用继电器时，其他电路仍然正常可用，降低衍生产品开发量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器是导轨式安装仪器，见样图。样图中显示部分就是本机HMI，但HMI功能更多。输入输出部分在样图中设备的上下两侧。输出在一侧，输入在一侧。输入输出连接器未选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源部分靠近电源输入端子，提高EMC性能。电源回路的电流返回包围的面积要尽量小，降低EMI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板与板之间用对插的插针与插座，自选。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,7 +1640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1732,9 +1738,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,6 +1758,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2062,33 +2068,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.6640625" defaultRowHeight="25.05" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="16.35546875" customWidth="1"/>
-    <col min="5" max="5" width="10.2109375" customWidth="1"/>
-    <col min="6" max="6" width="30.640625" style="4"/>
-    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="4"/>
+    <col min="7" max="7" width="21.21875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="25.05" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>164</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.05" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2125,10 +2131,10 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="12"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="25.05" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2144,11 +2150,11 @@
       <c r="E3" s="3">
         <v>80</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="13"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.05" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2164,10 +2170,10 @@
       <c r="E4" s="3">
         <v>29</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="13"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="25.05" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2183,10 +2189,10 @@
       <c r="E5" s="3">
         <v>38</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="13"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.05" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>168</v>
       </c>
@@ -2202,12 +2208,12 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="25.05" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2223,10 +2229,10 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="13"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.05" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2242,10 +2248,10 @@
       <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="13"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="25.05" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>170</v>
       </c>
@@ -2261,16 +2267,16 @@
       <c r="E9" s="8">
         <v>6</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="25.05" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -2284,16 +2290,16 @@
       <c r="E10" s="8">
         <v>6</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.05" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -2307,16 +2313,16 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.05" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
@@ -2330,16 +2336,16 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.05" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>39</v>
@@ -2353,14 +2359,14 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.05" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -2376,12 +2382,12 @@
       <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.05" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -2397,20 +2403,20 @@
       <c r="E15" s="8">
         <v>12</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.05" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>45</v>
@@ -2418,14 +2424,14 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.05" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2441,10 +2447,10 @@
       <c r="E17" s="3">
         <v>14</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="13"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.05" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
@@ -2460,12 +2466,12 @@
       <c r="E18" s="8">
         <v>6</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.05" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -2481,10 +2487,10 @@
       <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="13"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.05" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2500,10 +2506,10 @@
       <c r="E20" s="3">
         <v>28</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="13"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="25.05" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2519,10 +2525,10 @@
       <c r="E21" s="3">
         <v>108</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="13"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.05" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2538,10 +2544,10 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="13"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="25.05" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>171</v>
       </c>
@@ -2557,12 +2563,12 @@
       <c r="E23" s="8">
         <v>6</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.05" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -2578,10 +2584,10 @@
       <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="13"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.05" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2597,10 +2603,10 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="13"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="25.05" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2616,10 +2622,10 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="13"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="25.05" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -2635,10 +2641,10 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="13"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="25.05" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2654,10 +2660,10 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="13"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" ht="25.05" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -2673,10 +2679,10 @@
       <c r="E29" s="3">
         <v>13</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="13"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.05" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2692,10 +2698,10 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="13"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" ht="25.05" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>172</v>
       </c>
@@ -2711,12 +2717,12 @@
       <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="25.05" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
@@ -2732,12 +2738,12 @@
       <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="25.05" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -2753,12 +2759,12 @@
       <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.05" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -2774,10 +2780,10 @@
       <c r="E34" s="3">
         <v>12</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="13"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="25.05" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -2793,10 +2799,10 @@
       <c r="E35" s="3">
         <v>18</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="13"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="25.05" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -2812,10 +2818,10 @@
       <c r="E36" s="3">
         <v>3</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="13"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" ht="25.05" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>173</v>
       </c>
@@ -2831,12 +2837,12 @@
       <c r="E37" s="8">
         <v>1</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="25.05" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -2852,10 +2858,10 @@
       <c r="E38" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="13"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="25.05" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -2871,10 +2877,10 @@
       <c r="E39" s="3">
         <v>63</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="13"/>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" ht="25.05" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -2890,10 +2896,10 @@
       <c r="E40" s="3">
         <v>49</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="13"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" ht="25.05" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -2909,10 +2915,10 @@
       <c r="E41" s="3">
         <v>18</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="13"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="25.05" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -2928,10 +2934,10 @@
       <c r="E42" s="3">
         <v>135</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="13"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" ht="25.05" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -2947,10 +2953,10 @@
       <c r="E43" s="3">
         <v>24</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="13"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" ht="25.05" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -2966,10 +2972,10 @@
       <c r="E44" s="3">
         <v>12</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="13"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" ht="25.05" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -2985,10 +2991,10 @@
       <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="13"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7" ht="25.05" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3004,10 +3010,10 @@
       <c r="E46" s="3">
         <v>8</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="13"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7" ht="25.05" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -3023,10 +3029,10 @@
       <c r="E47" s="3">
         <v>12</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="13"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" ht="25.05" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -3042,10 +3048,10 @@
       <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="13"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:7" ht="25.05" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3061,10 +3067,10 @@
       <c r="E49" s="3">
         <v>24</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="13"/>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="1:7" ht="25.05" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3080,10 +3086,10 @@
       <c r="E50" s="3">
         <v>24</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="13"/>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="1:7" ht="25.05" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>174</v>
       </c>
@@ -3099,12 +3105,12 @@
       <c r="E51" s="8">
         <v>6</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="1:7" ht="25.05" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>135</v>
       </c>
@@ -3120,12 +3126,12 @@
       <c r="E52" s="8">
         <v>1</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="1:7" ht="25.05" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>138</v>
       </c>
@@ -3141,10 +3147,10 @@
       <c r="E53" s="3">
         <v>63</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="13"/>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="1:7" ht="25.05" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
@@ -3160,10 +3166,10 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="13"/>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="1:7" ht="25.05" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -3179,10 +3185,10 @@
       <c r="E55" s="3">
         <v>3</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F55" s="13"/>
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="1:7" ht="25.05" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>145</v>
       </c>
@@ -3198,10 +3204,10 @@
       <c r="E56" s="3">
         <v>24</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="13"/>
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="1:7" ht="25.05" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>147</v>
       </c>
@@ -3217,10 +3223,10 @@
       <c r="E57" s="3">
         <v>3</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F57" s="13"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:7" ht="25.05" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>149</v>
       </c>
@@ -3236,10 +3242,10 @@
       <c r="E58" s="3">
         <v>6</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="13"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="1:7" ht="25.05" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>152</v>
       </c>
@@ -3255,10 +3261,10 @@
       <c r="E59" s="3">
         <v>2</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F59" s="13"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:7" ht="25.05" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>155</v>
       </c>
@@ -3274,12 +3280,12 @@
       <c r="E60" s="8">
         <v>1</v>
       </c>
-      <c r="F60" s="17" t="s">
+      <c r="F60" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:7" ht="25.05" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>157</v>
       </c>
@@ -3295,10 +3301,10 @@
       <c r="E61" s="3">
         <v>22</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="13"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:7" ht="25.05" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>157</v>
       </c>
@@ -3314,12 +3320,12 @@
       <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="13"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" ht="25.05" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>163</v>
@@ -3333,14 +3339,14 @@
       <c r="E63" s="8">
         <v>1</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G63" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="25.05" customHeight="1">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
@@ -3355,20 +3361,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.4">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.4">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -3384,32 +3390,32 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.4">
       <c r="B3" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="14.4">
       <c r="B4" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.4">
       <c r="B5" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.4">
       <c r="B6" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.4">
       <c r="B7" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="14.4">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -3417,17 +3423,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="14.4">
       <c r="B9" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.4">
       <c r="A13" s="10">
         <v>2.1</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.4">
       <c r="A14" s="10">
         <v>2.2000000000000002</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="14.4">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="14.4">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -3459,12 +3465,27 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="14.4">
       <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>200</v>
+      <c r="B18" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4">
+      <c r="B19" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4">
+      <c r="B20" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4">
+      <c r="B21" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1971664A-5C6B-4EEB-9325-89AC53249D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C704FFF-991A-467B-A69B-A881B9E33A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="219">
   <si>
     <t>Comment</t>
   </si>
@@ -452,192 +452,1136 @@
     <t>U1</t>
   </si>
   <si>
+    <t>T494B106M006AHAUTO</t>
+  </si>
+  <si>
+    <t>C308, C309, C322, C323, C330, C338, C339, C344, C345, C350, C601_VI1, C601_VI2, C601_VI3, C601_VI4, C601_VI5, C601_VI6, C602_VI1, C602_VI2, C602_VI3, C602_VI4, C602_VI5, C602_VI6, C603_VI1, C603_VI2, C603_VI3, C603_VI4, C603_VI5, C603_VI6, C604_VI1, C604_VI2, C604_VI3, C604_VI4, C604_VI5, C604_VI6, C618_VI1, C618_VI2, C618_VI3, C618_VI4, C618_VI5, C618_VI6, C619_VI1, C619_VI2, C619_VI3, C619_VI4, C619_VI5, C619_VI6, C625_VI1, C625_VI2, C625_VI3, C625_VI4, C625_VI5, C625_VI6, C626_VI1, C626_VI2, C626_VI3, C626_VI4, C626_VI5, C626_VI6, C701, C702, C714, C716, C718</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>T494B107M006AHAUTO</t>
+  </si>
+  <si>
+    <t>C316</t>
+  </si>
+  <si>
+    <t>T494B226M006AHAUTO</t>
+  </si>
+  <si>
+    <t>C202, C501, C503</t>
+  </si>
+  <si>
+    <t>T494B476K025ATAUTO</t>
+  </si>
+  <si>
+    <t>C301, C302, C314, C315, C318, C319, C328, C329, C334, C335, C346, C347, C609_VI1, C609_VI2, C609_VI3, C609_VI4, C609_VI5, C609_VI6, C610_VI1, C610_VI2, C610_VI3, C610_VI4, C610_VI5, C610_VI6</t>
+  </si>
+  <si>
+    <t>T494B476M010AHAUTO</t>
+  </si>
+  <si>
+    <t>C331, C401, C402</t>
+  </si>
+  <si>
+    <t>TL431</t>
+  </si>
+  <si>
+    <t>U604_VI1, U604_VI2, U604_VI3, U604_VI4, U604_VI5, U604_VI6</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>TLP293-4</t>
+  </si>
+  <si>
+    <t>U311, U312</t>
+  </si>
+  <si>
+    <t>SO-16</t>
+  </si>
+  <si>
+    <t>Toggle switch-6P</t>
+  </si>
+  <si>
+    <t>K502</t>
+  </si>
+  <si>
+    <t>VLS4012HBX-150M</t>
+  </si>
+  <si>
+    <t>L501, L502, L601_VI1, L601_VI2, L601_VI3, L601_VI4, L601_VI5, L601_VI6, L602_VI1, L602_VI2, L602_VI3, L602_VI4, L602_VI5, L602_VI6, L603_VI1, L603_VI2, L603_VI3, L603_VI4, L603_VI5, L603_VI6, L701, L702</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L301</t>
+  </si>
+  <si>
+    <t>vls4012</t>
+  </si>
+  <si>
+    <t>WRB_ST(SD)-3WR2</t>
+  </si>
+  <si>
+    <t>U303</t>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10D470K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值(备注)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05_S-1WR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC8742H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM1117IMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED(0.94,12864,RGB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Si1024X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金升阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏晶单片机，stcmcu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISHAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时没定，确定再说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨码开关，Tyco Electronics，ADF系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSS138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON，安森美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，数字隔离器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，RS485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADI，DAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个四个部分都有外接的连接器。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源是隔离型的。输入为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9-36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，标准为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>24V</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>先转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LM1117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供电，非隔离，注意铺地。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DCDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块转隔离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AD7124-8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DCDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块转隔离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>±15V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC5753</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RS485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通讯部分由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.3V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADM28582</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的辅助隔离电源管脚输出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LM1117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>散热铜皮应不小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5mm*5mm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仪器分为相互隔离的四部分：电源，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，通讯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分，使用了兼容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等协议的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC8742</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4-20mAZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电流输出时的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HART</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通讯。不需要单独电源</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一个单独的小板子，它与主板的连接，自定义转接插针。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尺寸有宽度要求，以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>20mmMAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为限，受</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>OLED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影响。若使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块主板，宽度要增加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供电电源输入是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每通道是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每通道是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，通讯是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的（实用是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。以连接端子来看，得两块板子。连接器在找，估计得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12PIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，双板</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0505ST16-W5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRB_ST(SD)-3WR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2405官网下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP16-1.27(V2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD5753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7124-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM2582E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADuM241D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADuM260N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V 规格书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC8H8K64U_QFN64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LQFP64S(12x12)</t>
-  </si>
-  <si>
-    <t>T494B106M006AHAUTO</t>
-  </si>
-  <si>
-    <t>C308, C309, C322, C323, C330, C338, C339, C344, C345, C350, C601_VI1, C601_VI2, C601_VI3, C601_VI4, C601_VI5, C601_VI6, C602_VI1, C602_VI2, C602_VI3, C602_VI4, C602_VI5, C602_VI6, C603_VI1, C603_VI2, C603_VI3, C603_VI4, C603_VI5, C603_VI6, C604_VI1, C604_VI2, C604_VI3, C604_VI4, C604_VI5, C604_VI6, C618_VI1, C618_VI2, C618_VI3, C618_VI4, C618_VI5, C618_VI6, C619_VI1, C619_VI2, C619_VI3, C619_VI4, C619_VI5, C619_VI6, C625_VI1, C625_VI2, C625_VI3, C625_VI4, C625_VI5, C625_VI6, C626_VI1, C626_VI2, C626_VI3, C626_VI4, C626_VI5, C626_VI6, C701, C702, C714, C716, C718</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>T494B107M006AHAUTO</t>
-  </si>
-  <si>
-    <t>C316</t>
-  </si>
-  <si>
-    <t>T494B226M006AHAUTO</t>
-  </si>
-  <si>
-    <t>C202, C501, C503</t>
-  </si>
-  <si>
-    <t>T494B476K025ATAUTO</t>
-  </si>
-  <si>
-    <t>C301, C302, C314, C315, C318, C319, C328, C329, C334, C335, C346, C347, C609_VI1, C609_VI2, C609_VI3, C609_VI4, C609_VI5, C609_VI6, C610_VI1, C610_VI2, C610_VI3, C610_VI4, C610_VI5, C610_VI6</t>
-  </si>
-  <si>
-    <t>T494B476M010AHAUTO</t>
-  </si>
-  <si>
-    <t>C331, C401, C402</t>
-  </si>
-  <si>
-    <t>TL431</t>
-  </si>
-  <si>
-    <t>U604_VI1, U604_VI2, U604_VI3, U604_VI4, U604_VI5, U604_VI6</t>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-  </si>
-  <si>
-    <t>TLP293-4</t>
-  </si>
-  <si>
-    <t>U311, U312</t>
-  </si>
-  <si>
-    <t>SO-16</t>
-  </si>
-  <si>
-    <t>Toggle switch-6P</t>
-  </si>
-  <si>
-    <t>K502</t>
-  </si>
-  <si>
-    <t>VLS4012HBX-150M</t>
-  </si>
-  <si>
-    <t>L501, L502, L601_VI1, L601_VI2, L601_VI3, L601_VI4, L601_VI5, L601_VI6, L602_VI1, L602_VI2, L602_VI3, L602_VI4, L602_VI5, L602_VI6, L603_VI1, L603_VI2, L603_VI3, L603_VI4, L603_VI5, L603_VI6, L701, L702</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L301</t>
-  </si>
-  <si>
-    <t>vls4012</t>
-  </si>
-  <si>
-    <t>WRB_ST(SD)-3WR2</t>
-  </si>
-  <si>
-    <t>U303</t>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10D470K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值(备注)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A05_S-1WR3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC8742H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LM1117IMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OLED(0.94,12864,RGB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Si1024X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金升阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏晶单片机，stcmcu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VISHAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时没定，确定再说</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨码开关，Tyco Electronics，ADF系列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSS138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON，安森美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI，数字隔离器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI，RS485</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI，ADC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADI，DAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个四个部分都有外接的连接器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro switch-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各芯片的布局走线，一定要参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>datasheet</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,932 +1592,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的通道基本都是差分线，增强抗干扰能力</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电源是隔离型的。输入为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>9-36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，标准为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>24V</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>24V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>先转</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>LM1117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.3V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>给</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MCU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供电，非隔离，注意铺地。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DCDC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块转隔离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.3V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供给</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ADC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AD7124-8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DCDC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块转隔离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>±15V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供给</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DAC5753</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>RS485</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通讯部分由</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>MCU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3.3V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ADM28582</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的辅助隔离电源管脚输出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>各芯片的布局走线，一定要参考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>datasheet</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LM1117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>散热铜皮应不小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5mm*5mm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>仪器分为相互隔离的四部分：电源，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ADC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，通讯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>另在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分，使用了兼容</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HART</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等协议的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DAC8742</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，可以实现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4-20mAZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电流输出时的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HART</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通讯。不需要单独电源</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是一个单独的小板子，它与主板的连接，自定义转接插针。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>HMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尺寸有宽度要求，以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>20mmMAX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为限，受</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>OLED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影响。若使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>块主板，宽度要增加</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供电电源输入是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ADC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每通道是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每通道是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的，通讯是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的（实用是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。以连接端子来看，得两块板子。连接器在找，估计得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12PIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，双板</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0505ST16-W5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRB_ST(SD)-3WR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2405官网下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP16-1.27(V2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD5753</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD7124-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADM2582E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADuM241D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无，仅有ADuM240D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1581,7 +1606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1639,6 +1664,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1666,7 +1704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1689,13 +1727,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,9 +1808,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,6 +1816,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1816,7 +1892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1868,7 +1944,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2075,8 +2151,8 @@
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2090,23 +2166,26 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2126,7 +2205,8 @@
         <v>4</v>
       </c>
       <c r="F2" s="13"/>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2145,8 +2225,8 @@
         <v>80</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2165,7 +2245,8 @@
         <v>29</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -2184,11 +2265,12 @@
         <v>38</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>16</v>
@@ -2203,9 +2285,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="19"/>
+        <v>182</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -2224,7 +2307,8 @@
         <v>2</v>
       </c>
       <c r="F7" s="14"/>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -2243,11 +2327,12 @@
         <v>4</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>28</v>
@@ -2262,15 +2347,16 @@
         <v>6</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>202</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -2285,15 +2371,16 @@
         <v>6</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>208</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -2308,15 +2395,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>208</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
@@ -2331,15 +2419,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>208</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>39</v>
@@ -2354,15 +2443,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>212</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
@@ -2377,9 +2467,12 @@
         <v>2</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
@@ -2398,19 +2491,20 @@
         <v>12</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>45</v>
@@ -2419,13 +2513,14 @@
         <v>1</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2442,11 +2537,12 @@
         <v>14</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="18"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>50</v>
@@ -2461,11 +2557,16 @@
         <v>6</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -2482,9 +2583,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="18"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2501,9 +2603,10 @@
         <v>28</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="18"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2520,9 +2623,10 @@
         <v>108</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="18"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2539,11 +2643,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="14"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="18"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>64</v>
@@ -2558,11 +2663,14 @@
         <v>6</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -2579,9 +2687,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="14"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="18"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2598,9 +2707,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="14"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="18"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2617,9 +2727,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="14"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="18"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -2636,9 +2747,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="18"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2655,9 +2767,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="14"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="18"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -2674,9 +2787,10 @@
         <v>13</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="18"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2693,11 +2807,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="18"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>88</v>
@@ -2712,13 +2827,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>90</v>
@@ -2732,12 +2850,15 @@
       <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -2753,12 +2874,15 @@
       <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -2775,9 +2899,10 @@
         <v>12</v>
       </c>
       <c r="F34" s="14"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="18"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -2794,9 +2919,10 @@
         <v>18</v>
       </c>
       <c r="F35" s="14"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="18"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -2813,11 +2939,12 @@
         <v>3</v>
       </c>
       <c r="F36" s="14"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="18"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>103</v>
@@ -2831,12 +2958,13 @@
       <c r="E37" s="8">
         <v>1</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -2853,9 +2981,10 @@
         <v>2</v>
       </c>
       <c r="F38" s="14"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="18"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -2872,9 +3001,10 @@
         <v>63</v>
       </c>
       <c r="F39" s="14"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="18"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -2891,9 +3021,10 @@
         <v>49</v>
       </c>
       <c r="F40" s="14"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="18"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -2910,9 +3041,10 @@
         <v>18</v>
       </c>
       <c r="F41" s="14"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="18"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -2929,9 +3061,10 @@
         <v>135</v>
       </c>
       <c r="F42" s="14"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="18"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -2948,9 +3081,10 @@
         <v>24</v>
       </c>
       <c r="F43" s="14"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="18"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -2967,9 +3101,10 @@
         <v>12</v>
       </c>
       <c r="F44" s="14"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="18"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -2986,9 +3121,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="14"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="18"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3005,9 +3141,10 @@
         <v>8</v>
       </c>
       <c r="F46" s="14"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="18"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -3024,9 +3161,10 @@
         <v>12</v>
       </c>
       <c r="F47" s="14"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="18"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -3043,9 +3181,10 @@
         <v>2</v>
       </c>
       <c r="F48" s="14"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="18"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3062,9 +3201,10 @@
         <v>24</v>
       </c>
       <c r="F49" s="14"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="18"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3081,11 +3221,12 @@
         <v>24</v>
       </c>
       <c r="F50" s="14"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="18"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>133</v>
@@ -3100,19 +3241,22 @@
         <v>6</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>135</v>
@@ -3121,19 +3265,24 @@
         <v>1</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>69</v>
@@ -3142,17 +3291,18 @@
         <v>63</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="18"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>69</v>
@@ -3161,17 +3311,18 @@
         <v>1</v>
       </c>
       <c r="F54" s="14"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="18"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>69</v>
@@ -3180,17 +3331,18 @@
         <v>3</v>
       </c>
       <c r="F55" s="14"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="18"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>69</v>
@@ -3199,17 +3351,18 @@
         <v>24</v>
       </c>
       <c r="F56" s="14"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="18"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>69</v>
@@ -3218,135 +3371,147 @@
         <v>3</v>
       </c>
       <c r="F57" s="14"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="18"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" s="3">
         <v>6</v>
       </c>
       <c r="F58" s="14"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="18"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="14"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="18"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="8">
         <v>1</v>
       </c>
-      <c r="F60" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F60" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3">
         <v>22</v>
       </c>
       <c r="F61" s="14"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="18"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
       </c>
       <c r="F62" s="14"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="18"/>
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E63" s="8">
         <v>1</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G14:G15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -3356,10 +3521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3368,95 +3533,101 @@
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="11">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="21">
         <v>2.1</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="B13" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="21">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3464,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C704FFF-991A-467B-A69B-A881B9E33A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
@@ -20,8 +14,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="222">
   <si>
     <t>Comment</t>
   </si>
@@ -1323,10 +1317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完待续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1564,10 +1554,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <t>如果设计成两块板子，要考虑DAC输出部分即VIOUT的复用，即这些功能电路放置在一块板子上，并且可以被其他功能电路替换，如输出采用继电器时，其他电路仍然正常可用，降低衍生产品开发量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器是导轨式安装仪器，见样图。样图中显示部分就是本机HMI，但HMI功能更多。输入输出部分在样图中设备的上下两侧。输出在一侧，输入在一侧。输入输出连接器未选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源部分靠近电源输入端子，提高EMC性能。电源回路的电流返回包围的面积要尽量小，降低EMI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板与板之间用对插的插针与插座，自选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1577,7 +1582,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1592,7 +1596,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1605,8 +1608,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,20 +1662,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1796,9 +1797,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1817,20 +1815,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,7 +1893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1944,7 +1945,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2138,33 +2139,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="16.35546875" customWidth="1"/>
-    <col min="5" max="5" width="10.2109375" customWidth="1"/>
-    <col min="6" max="6" width="30.640625" style="4"/>
-    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="4"/>
+    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -2185,10 +2186,10 @@
         <v>165</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2204,11 +2205,11 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="12"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2224,11 +2225,11 @@
       <c r="E3" s="3">
         <v>80</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="13"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2244,11 +2245,11 @@
       <c r="E4" s="3">
         <v>29</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="13"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2264,11 +2265,11 @@
       <c r="E5" s="3">
         <v>38</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="13"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -2284,13 +2285,13 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2306,11 +2307,11 @@
       <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="13"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="24.95" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2326,11 +2327,11 @@
       <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="13"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="24.95" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -2346,17 +2347,17 @@
       <c r="E9" s="8">
         <v>6</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="24.95" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -2370,17 +2371,17 @@
       <c r="E10" s="8">
         <v>6</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="24.95" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -2394,17 +2395,17 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="24.95" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
@@ -2418,17 +2419,17 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>39</v>
@@ -2442,17 +2443,17 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="24.95" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
@@ -2466,15 +2467,15 @@
       <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>183</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -2490,21 +2491,21 @@
       <c r="E15" s="8">
         <v>12</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>183</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>45</v>
@@ -2512,15 +2513,15 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="24.95" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2536,11 +2537,11 @@
       <c r="E17" s="3">
         <v>14</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>180</v>
       </c>
@@ -2556,17 +2557,17 @@
       <c r="E18" s="8">
         <v>6</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24.95" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -2582,11 +2583,11 @@
       <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="13"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="24.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2602,11 +2603,11 @@
       <c r="E20" s="3">
         <v>28</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="13"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="24.95" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2622,11 +2623,11 @@
       <c r="E21" s="3">
         <v>108</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="13"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.95" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2642,11 +2643,11 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="13"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -2662,15 +2663,15 @@
       <c r="E23" s="8">
         <v>6</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="24.95" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -2686,11 +2687,11 @@
       <c r="E24" s="3">
         <v>2</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="13"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="24.95" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2706,11 +2707,11 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="13"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="24.95" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2726,11 +2727,11 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="13"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="24.95" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -2746,11 +2747,11 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="13"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="24.95" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2766,11 +2767,11 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="13"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="24.95" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -2786,11 +2787,11 @@
       <c r="E29" s="3">
         <v>13</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="13"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.95" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2806,11 +2807,11 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="13"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -2826,17 +2827,17 @@
       <c r="E31" s="8">
         <v>1</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>90</v>
@@ -2850,15 +2851,15 @@
       <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.95" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -2874,15 +2875,15 @@
       <c r="E33" s="8">
         <v>1</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="24.95" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -2898,11 +2899,11 @@
       <c r="E34" s="3">
         <v>12</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="13"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="24.95" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -2918,11 +2919,11 @@
       <c r="E35" s="3">
         <v>18</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="13"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="24.95" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -2938,11 +2939,11 @@
       <c r="E36" s="3">
         <v>3</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="13"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="24.95" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
@@ -2958,13 +2959,13 @@
       <c r="E37" s="8">
         <v>1</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="17"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="24.95" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -2980,11 +2981,11 @@
       <c r="E38" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="13"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" ht="24.95" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -3000,11 +3001,11 @@
       <c r="E39" s="3">
         <v>63</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="13"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" ht="24.95" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -3020,11 +3021,11 @@
       <c r="E40" s="3">
         <v>49</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="13"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="24.95" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -3040,11 +3041,11 @@
       <c r="E41" s="3">
         <v>18</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="14"/>
-    </row>
-    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="13"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3060,11 +3061,11 @@
       <c r="E42" s="3">
         <v>135</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="14"/>
-    </row>
-    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="13"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="24.95" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -3080,11 +3081,11 @@
       <c r="E43" s="3">
         <v>24</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="13"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="24.95" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -3100,11 +3101,11 @@
       <c r="E44" s="3">
         <v>12</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="13"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="24.95" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -3120,11 +3121,11 @@
       <c r="E45" s="3">
         <v>5</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="13"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="24.95" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3140,11 +3141,11 @@
       <c r="E46" s="3">
         <v>8</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="13"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" ht="24.95" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -3160,11 +3161,11 @@
       <c r="E47" s="3">
         <v>12</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="13"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="24.95" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -3180,11 +3181,11 @@
       <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="13"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" ht="24.95" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3200,11 +3201,11 @@
       <c r="E49" s="3">
         <v>24</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="13"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" ht="24.95" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3220,11 +3221,11 @@
       <c r="E50" s="3">
         <v>24</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="13"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
@@ -3240,23 +3241,23 @@
       <c r="E51" s="8">
         <v>6</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>135</v>
@@ -3264,17 +3265,17 @@
       <c r="E52" s="8">
         <v>1</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="24.95" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -3290,11 +3291,11 @@
       <c r="E53" s="3">
         <v>63</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="13"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" ht="24.95" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -3310,11 +3311,11 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="13"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" ht="24.95" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -3330,11 +3331,11 @@
       <c r="E55" s="3">
         <v>3</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F55" s="13"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" ht="24.95" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -3350,11 +3351,11 @@
       <c r="E56" s="3">
         <v>24</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="13"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" ht="24.95" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
@@ -3370,11 +3371,11 @@
       <c r="E57" s="3">
         <v>3</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F57" s="13"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" ht="24.95" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -3390,11 +3391,11 @@
       <c r="E58" s="3">
         <v>6</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="13"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" ht="24.95" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -3410,11 +3411,11 @@
       <c r="E59" s="3">
         <v>2</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F59" s="13"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
@@ -3430,15 +3431,15 @@
       <c r="E60" s="8">
         <v>1</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G60" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" ht="24.95" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
@@ -3454,11 +3455,11 @@
       <c r="E61" s="3">
         <v>22</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="13"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" ht="24.95" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -3474,13 +3475,13 @@
       <c r="E62" s="3">
         <v>1</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="13"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>162</v>
@@ -3494,15 +3495,15 @@
       <c r="E63" s="8">
         <v>1</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F63" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="G63" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" ht="24.95" customHeight="1">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
@@ -3520,20 +3521,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -3549,32 +3550,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -3582,39 +3583,41 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="B9" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
+    <row r="13" spans="1:6">
+      <c r="A13" s="22">
         <v>2.1</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="B13" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -3630,12 +3633,27 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>197</v>
+      <c r="B18" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="21" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97242ACC-24CA-4FEF-A4DA-21C81A5CE165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
@@ -14,8 +20,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="228">
   <si>
     <t>Comment</t>
   </si>
@@ -1317,10 +1323,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <t>官网下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0505ST16-W5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WRB_ST(SD)-3WR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2405官网下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP16-1.27(V2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD5753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7124-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM2582E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADuM241D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADuM260N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3V 规格书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC8H8K64U_QFN64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP64S(12x12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micro switch-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设计成两块板子，要考虑DAC输出部分即VIOUT的复用，即这些功能电路放置在一块板子上，并且可以被其他功能电路替换，如输出采用继电器时，其他电路仍然正常可用，降低衍生产品开发量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器是导轨式安装仪器，见样图。样图中显示部分就是本机HMI，但HMI功能更多。输入输出部分在样图中设备的上下两侧。输出在一侧，输入在一侧。输入输出连接器未选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源部分靠近电源输入端子，提高EMC性能。电源回路的电流返回包围的面积要尽量小，降低EMI。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板与板之间用对插的插针与插座，自选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>各芯片的布局走线，一定要参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>datasheet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的通道基本都是差分线，增强抗干扰能力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个部分是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>adc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>么？对应原理图中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>adc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sensorinterface?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1330,7 +1519,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1339,7 +1528,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1349,7 +1538,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1358,7 +1547,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1368,7 +1557,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1377,7 +1566,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1387,7 +1576,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1396,7 +1585,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1406,7 +1595,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1415,7 +1604,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1425,7 +1614,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1434,7 +1623,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1444,7 +1633,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1453,7 +1642,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1463,7 +1652,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -1472,7 +1661,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
@@ -1482,134 +1671,276 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>官网下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0505ST16-W5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRB_ST(SD)-3WR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2405官网下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP16-1.27(V2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD5753</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD7124-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADM2582E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADuM241D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADuM260N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-23-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3V 规格书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC8H8K64U_QFN64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LQFP64S(12x12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Micro switch-2P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果设计成两块板子，要考虑DAC输出部分即VIOUT的复用，即这些功能电路放置在一块板子上，并且可以被其他功能电路替换，如输出采用继电器时，其他电路仍然正常可用，降低衍生产品开发量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器是导轨式安装仪器，见样图。样图中显示部分就是本机HMI，但HMI功能更多。输入输出部分在样图中设备的上下两侧。输出在一侧，输入在一侧。输入输出连接器未选。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源部分靠近电源输入端子，提高EMC性能。电源回路的电流返回包围的面积要尽量小，降低EMI。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板与板之间用对插的插针与插座，自选。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>各芯片的布局走线，一定要参考</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>datasheet</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ADC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的通道基本都是差分线，增强抗干扰能力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>-1 dac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>adc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sensorinterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>两部分么？还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>viout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部分？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示器与拨码开关都要放置在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hmi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的印制板上么？且无显示器的规格书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将原理图更新至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pcb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，显示有部分错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ERROR)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，看一下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-4 p101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> p106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>p109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别为烧录和输入接口，其余</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>homepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上的连接器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均是输出端口？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以先摆在一个文件里面吗</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,8 +2009,41 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1701,6 +2065,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,7 +2130,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1818,20 +2188,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1848,6 +2233,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1545771" y="3200400"/>
+          <a:ext cx="849086" cy="1338943"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,7 +2339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1945,7 +2391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2139,33 +2585,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="4"/>
-    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="16.35546875" customWidth="1"/>
+    <col min="5" max="5" width="10.2109375" customWidth="1"/>
+    <col min="6" max="6" width="36.2109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -2186,10 +2632,10 @@
         <v>165</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2655,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1">
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2229,7 +2675,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1">
+    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2249,7 +2695,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1">
+    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2269,7 +2715,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1">
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -2291,7 +2737,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1">
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2311,7 +2757,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1">
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2331,7 +2777,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1">
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -2351,13 +2797,13 @@
         <v>174</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1">
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -2375,13 +2821,13 @@
         <v>186</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -2399,13 +2845,13 @@
         <v>185</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
@@ -2423,13 +2869,13 @@
         <v>184</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1">
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>39</v>
@@ -2447,13 +2893,13 @@
         <v>183</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1">
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>42</v>
@@ -2470,12 +2916,12 @@
       <c r="F14" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>204</v>
+      <c r="G14" s="27" t="s">
+        <v>203</v>
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1">
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -2494,18 +2940,18 @@
       <c r="F15" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1">
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>45</v>
@@ -2517,11 +2963,11 @@
         <v>174</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1">
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2541,7 +2987,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1">
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>180</v>
       </c>
@@ -2561,13 +3007,13 @@
         <v>181</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -2587,7 +3033,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1">
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2607,7 +3053,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1">
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -2627,7 +3073,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1">
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2647,7 +3093,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1">
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -2667,11 +3113,11 @@
         <v>179</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1">
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -2691,7 +3137,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1">
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2711,7 +3157,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1">
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2731,7 +3177,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1">
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -2751,7 +3197,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1">
+    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2771,7 +3217,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1">
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -2791,7 +3237,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="24.95" customHeight="1">
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2811,7 +3257,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1">
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -2831,13 +3277,13 @@
         <v>179</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="24.95" customHeight="1">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>90</v>
@@ -2855,11 +3301,11 @@
         <v>178</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="24.95" customHeight="1">
+    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -2879,11 +3325,11 @@
         <v>178</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="24.95" customHeight="1">
+    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -2903,7 +3349,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="24.95" customHeight="1">
+    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -2923,7 +3369,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="24.95" customHeight="1">
+    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -2943,7 +3389,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" ht="24.95" customHeight="1">
+    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
@@ -2965,7 +3411,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" ht="24.95" customHeight="1">
+    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -2985,7 +3431,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" ht="24.95" customHeight="1">
+    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -3005,7 +3451,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="24.95" customHeight="1">
+    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -3025,7 +3471,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1">
+    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -3045,7 +3491,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1">
+    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3065,7 +3511,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="24.95" customHeight="1">
+    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -3085,7 +3531,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="24.95" customHeight="1">
+    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -3105,7 +3551,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="24.95" customHeight="1">
+    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -3125,7 +3571,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="24.95" customHeight="1">
+    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3145,7 +3591,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="24.95" customHeight="1">
+    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -3165,7 +3611,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="24.95" customHeight="1">
+    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -3185,7 +3631,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="24.95" customHeight="1">
+    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3205,7 +3651,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="24.95" customHeight="1">
+    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3225,7 +3671,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="24.95" customHeight="1">
+    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
@@ -3245,19 +3691,19 @@
         <v>176</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" ht="24.95" customHeight="1">
+    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>135</v>
@@ -3269,13 +3715,13 @@
         <v>175</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="24.95" customHeight="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -3295,7 +3741,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="24.95" customHeight="1">
+    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -3315,7 +3761,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="24.95" customHeight="1">
+    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -3335,7 +3781,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" ht="24.95" customHeight="1">
+    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -3355,7 +3801,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="24.95" customHeight="1">
+    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
@@ -3375,7 +3821,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" ht="24.95" customHeight="1">
+    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -3395,7 +3841,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" ht="24.95" customHeight="1">
+    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -3415,7 +3861,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" ht="24.95" customHeight="1">
+    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
@@ -3435,11 +3881,11 @@
         <v>178</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" ht="24.95" customHeight="1">
+    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
@@ -3459,7 +3905,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" ht="24.95" customHeight="1">
+    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -3479,9 +3925,9 @@
       <c r="G62" s="17"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" ht="24.95" customHeight="1">
+    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>162</v>
@@ -3499,14 +3945,19 @@
         <v>174</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" ht="24.95" customHeight="1">
+    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="26" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3521,20 +3972,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -3542,7 +3993,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -3550,32 +4001,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -3583,41 +4034,56 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="22">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="21">
         <v>2.1</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -3625,7 +4091,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -3633,32 +4099,148 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>3</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B21" s="23" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="21" t="s">
-        <v>219</v>
-      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C26" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C28" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C29" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C30" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C31" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C32" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97242ACC-24CA-4FEF-A4DA-21C81A5CE165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
@@ -19,9 +13,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="233">
   <si>
     <t>Comment</t>
   </si>
@@ -1934,13 +1928,85 @@
       </rPr>
       <t>可以先摆在一个文件里面吗</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>DAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是VIOUT部分</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是电源输入接口；P106是与工控系统通讯的485接口，使用MODBUS协议；P109是HMI板子上的USB接口，用来设备本地控制。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一块板子。这个板子先放着不动，等其它两块画完了再说；显示器请叫它OLED屏，厂家太多，规格未定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以在一个板子里画，但是最终是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块板子。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2042,6 +2108,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2130,7 +2203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2218,6 +2291,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2255,7 +2331,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2391,7 +2467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2585,14 +2661,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2602,16 +2678,16 @@
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="16.35546875" customWidth="1"/>
-    <col min="5" max="5" width="10.2109375" customWidth="1"/>
-    <col min="6" max="6" width="36.2109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -2635,7 +2711,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2731,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2675,7 +2751,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2695,7 +2771,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2791,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -2737,7 +2813,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2833,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24.95" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2777,7 +2853,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -2801,7 +2877,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24.95" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>202</v>
       </c>
@@ -2825,7 +2901,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24.95" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>204</v>
       </c>
@@ -2849,7 +2925,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="24.95" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>205</v>
       </c>
@@ -2873,7 +2949,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="24.95" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>206</v>
       </c>
@@ -2897,7 +2973,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="24.95" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>207</v>
       </c>
@@ -2921,7 +2997,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -2943,7 +3019,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>198</v>
       </c>
@@ -2967,7 +3043,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="24.95" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -2987,7 +3063,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>180</v>
       </c>
@@ -3013,7 +3089,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24.95" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -3033,7 +3109,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="24.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -3053,7 +3129,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="24.95" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -3073,7 +3149,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="24.95" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -3093,7 +3169,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -3117,7 +3193,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="24.95" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -3137,7 +3213,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="24.95" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -3157,7 +3233,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="24.95" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -3177,7 +3253,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="24.95" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3197,7 +3273,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="24.95" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -3217,7 +3293,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="24.95" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -3237,7 +3313,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="24.95" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3257,7 +3333,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -3281,7 +3357,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>213</v>
       </c>
@@ -3305,7 +3381,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="24.95" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -3329,7 +3405,7 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="24.95" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -3349,7 +3425,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24.95" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -3369,7 +3445,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24.95" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -3389,7 +3465,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24.95" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
@@ -3411,7 +3487,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24.95" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -3431,7 +3507,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24.95" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -3451,7 +3527,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24.95" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -3471,7 +3547,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24.95" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -3491,7 +3567,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3511,7 +3587,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="24.95" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -3531,7 +3607,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="24.95" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -3551,7 +3627,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="24.95" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -3571,7 +3647,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="24.95" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3591,7 +3667,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="24.95" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -3611,7 +3687,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="24.95" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -3631,7 +3707,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="24.95" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3651,7 +3727,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="24.95" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3671,7 +3747,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
@@ -3695,7 +3771,7 @@
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>211</v>
       </c>
@@ -3721,7 +3797,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="24.95" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -3741,7 +3817,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="24.95" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -3761,7 +3837,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="24.95" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -3781,7 +3857,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="24.95" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -3801,7 +3877,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="24.95" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
@@ -3821,7 +3897,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="24.95" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -3841,7 +3917,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="24.95" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -3861,7 +3937,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
@@ -3885,7 +3961,7 @@
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="24.95" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
@@ -3905,7 +3981,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="24.95" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -3925,7 +4001,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>199</v>
       </c>
@@ -3949,13 +4025,13 @@
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="24.95" customHeight="1">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="24.95" customHeight="1">
       <c r="A65" s="26" t="s">
         <v>102</v>
       </c>
@@ -3972,20 +4048,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -3993,7 +4069,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -4001,32 +4077,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17">
       <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17">
       <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -4034,7 +4110,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="B9" s="25" t="s">
         <v>222</v>
       </c>
@@ -4054,12 +4130,12 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" s="21">
         <v>2.1</v>
       </c>
@@ -4071,7 +4147,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>2.2000000000000002</v>
       </c>
@@ -4083,7 +4159,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -4091,7 +4167,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -4099,7 +4175,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -4124,7 +4200,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19">
       <c r="B19" s="23" t="s">
         <v>216</v>
       </c>
@@ -4145,7 +4221,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19">
       <c r="B20" s="23" t="s">
         <v>217</v>
       </c>
@@ -4160,7 +4236,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19">
       <c r="B21" s="23" t="s">
         <v>218</v>
       </c>
@@ -4169,7 +4245,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19">
       <c r="C26" s="24" t="s">
         <v>221</v>
       </c>
@@ -4178,7 +4254,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19">
       <c r="C28" s="25" t="s">
         <v>223</v>
       </c>
@@ -4190,8 +4266,11 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L28" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="C29" s="25" t="s">
         <v>224</v>
       </c>
@@ -4203,8 +4282,11 @@
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L29" s="29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="C30" s="25" t="s">
         <v>225</v>
       </c>
@@ -4216,8 +4298,11 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L30" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="C31" s="25" t="s">
         <v>226</v>
       </c>
@@ -4229,13 +4314,19 @@
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L31" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="C32" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
+      <c r="L32" s="9" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C9F43-4248-4DDB-82B2-A593B8B0A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
     <sheet name="备注" sheetId="2" r:id="rId2"/>
+    <sheet name="error部分" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="234">
   <si>
     <t>Comment</t>
   </si>
@@ -1999,14 +2006,18 @@
       </rPr>
       <t>块板子。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见附录3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2203,7 +2214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2285,14 +2296,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2300,6 +2314,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2331,7 +2350,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,6 +2386,329 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497634</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>37091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B7B78-FF2E-415D-BFEA-69FF02E064F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="6795796" cy="6832886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>178837</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31102</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>93306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6A71DC-FB08-4EC3-BF1F-D9609B4D8C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="178837" y="5854959"/>
+          <a:ext cx="4051041" cy="497633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="52157"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>172028</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>64659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B14CF4-1E28-4140-AFC5-5CD59AF6006E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8133185" y="1500673"/>
+          <a:ext cx="10933333" cy="6790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>637590</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338203</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="椭圆 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E946DC36-2EA5-4566-89ED-3507C4AFE114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8335346" y="2006082"/>
+          <a:ext cx="1800000" cy="2425959"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622042</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>668693</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101081</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2021633" y="3716694"/>
+          <a:ext cx="6344816" cy="2643673"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9896</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>32807</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CB9022-3E9C-4DE9-8D73-3FE77278CEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9262753"/>
+          <a:ext cx="14557169" cy="8761170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2415,7 +2757,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2467,7 +2809,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2661,14 +3003,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2678,16 +3020,16 @@
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="16.35546875" customWidth="1"/>
+    <col min="5" max="5" width="10.2109375" customWidth="1"/>
+    <col min="6" max="6" width="36.2109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -2711,7 +3053,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +3073,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1">
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +3093,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1">
+    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2771,7 +3113,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1">
+    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +3133,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1">
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -2813,7 +3155,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1">
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2833,7 +3175,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1">
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2853,7 +3195,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1">
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -2877,7 +3219,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1">
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>202</v>
       </c>
@@ -2901,7 +3243,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1">
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>204</v>
       </c>
@@ -2925,7 +3267,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>205</v>
       </c>
@@ -2949,7 +3291,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1">
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>206</v>
       </c>
@@ -2973,7 +3315,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1">
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>207</v>
       </c>
@@ -2992,12 +3334,12 @@
       <c r="F14" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="29" t="s">
         <v>203</v>
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1">
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -3016,10 +3358,10 @@
       <c r="F15" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1">
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>198</v>
       </c>
@@ -3043,7 +3385,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1">
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -3063,7 +3405,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1">
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>180</v>
       </c>
@@ -3089,7 +3431,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1">
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -3109,7 +3451,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1">
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -3129,7 +3471,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1">
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -3149,7 +3491,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1">
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -3169,7 +3511,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1">
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -3193,7 +3535,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1">
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -3213,7 +3555,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1">
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -3233,7 +3575,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1">
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -3253,7 +3595,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1">
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3273,7 +3615,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1">
+    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -3293,7 +3635,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1">
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -3313,7 +3655,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="24.95" customHeight="1">
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3333,7 +3675,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1">
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -3357,7 +3699,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="24.95" customHeight="1">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>213</v>
       </c>
@@ -3381,7 +3723,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="24.95" customHeight="1">
+    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -3405,7 +3747,7 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="24.95" customHeight="1">
+    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -3425,7 +3767,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="24.95" customHeight="1">
+    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -3445,7 +3787,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="24.95" customHeight="1">
+    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -3465,7 +3807,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" ht="24.95" customHeight="1">
+    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
@@ -3487,7 +3829,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" ht="24.95" customHeight="1">
+    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -3507,7 +3849,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" ht="24.95" customHeight="1">
+    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -3527,7 +3869,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="24.95" customHeight="1">
+    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -3547,7 +3889,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1">
+    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -3567,7 +3909,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1">
+    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3587,7 +3929,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="24.95" customHeight="1">
+    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -3607,7 +3949,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="24.95" customHeight="1">
+    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -3627,7 +3969,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="24.95" customHeight="1">
+    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -3647,7 +3989,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="24.95" customHeight="1">
+    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3667,7 +4009,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="24.95" customHeight="1">
+    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -3687,7 +4029,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="24.95" customHeight="1">
+    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -3707,7 +4049,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="24.95" customHeight="1">
+    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -3727,7 +4069,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="24.95" customHeight="1">
+    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3747,7 +4089,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="24.95" customHeight="1">
+    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
@@ -3771,7 +4113,7 @@
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" ht="24.95" customHeight="1">
+    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>211</v>
       </c>
@@ -3797,7 +4139,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="24.95" customHeight="1">
+    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -3817,7 +4159,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="24.95" customHeight="1">
+    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -3837,7 +4179,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="24.95" customHeight="1">
+    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -3857,7 +4199,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" ht="24.95" customHeight="1">
+    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -3877,7 +4219,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="24.95" customHeight="1">
+    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
@@ -3897,7 +4239,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" ht="24.95" customHeight="1">
+    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -3917,7 +4259,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" ht="24.95" customHeight="1">
+    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -3937,7 +4279,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" ht="24.95" customHeight="1">
+    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
@@ -3961,7 +4303,7 @@
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" ht="24.95" customHeight="1">
+    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
@@ -3981,7 +4323,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" ht="24.95" customHeight="1">
+    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -4001,7 +4343,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" ht="24.95" customHeight="1">
+    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>199</v>
       </c>
@@ -4025,13 +4367,13 @@
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" ht="24.95" customHeight="1">
+    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="24.95" customHeight="1">
+    <row r="65" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>102</v>
       </c>
@@ -4048,20 +4390,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -4069,7 +4411,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -4077,32 +4419,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -4110,7 +4452,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
         <v>222</v>
       </c>
@@ -4130,12 +4472,12 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>2.1</v>
       </c>
@@ -4147,7 +4489,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>2.2000000000000002</v>
       </c>
@@ -4159,7 +4501,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -4167,7 +4509,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -4175,7 +4517,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -4200,7 +4542,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>216</v>
       </c>
@@ -4221,7 +4563,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
         <v>217</v>
       </c>
@@ -4236,7 +4578,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
         <v>218</v>
       </c>
@@ -4245,7 +4587,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C26" s="24" t="s">
         <v>221</v>
       </c>
@@ -4254,7 +4596,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C28" s="25" t="s">
         <v>223</v>
       </c>
@@ -4270,7 +4612,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C29" s="25" t="s">
         <v>224</v>
       </c>
@@ -4282,11 +4624,11 @@
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="L29" s="29" t="s">
+      <c r="L29" s="27" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C30" s="25" t="s">
         <v>225</v>
       </c>
@@ -4298,11 +4640,14 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="M30" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C31" s="25" t="s">
         <v>226</v>
       </c>
@@ -4318,7 +4663,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C32" s="25" t="s">
         <v>227</v>
       </c>
@@ -4334,4 +4679,20 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5DC015-1F22-4ACA-BF06-504D6C0B7D2E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA92" sqref="AA92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C9F43-4248-4DDB-82B2-A593B8B0A0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="237">
   <si>
     <t>Comment</t>
   </si>
@@ -2010,14 +2004,26 @@
   </si>
   <si>
     <t>见附录3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC部分标签冲突，更改了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做好拨码开关和按钮开关的封装就没这个了，先不管，这是HMI板子的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨码开关和按钮开关的封装需要你来做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2214,7 +2220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2308,6 +2314,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2350,7 +2359,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2420,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B7B78-FF2E-415D-BFEA-69FF02E064F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B7B78-FF2E-415D-BFEA-69FF02E064F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2429,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2455,7 +2464,7 @@
         <xdr:cNvPr id="3" name="矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6A71DC-FB08-4EC3-BF1F-D9609B4D8C8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6A71DC-FB08-4EC3-BF1F-D9609B4D8C8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2530,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B14CF4-1E28-4140-AFC5-5CD59AF6006E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B14CF4-1E28-4140-AFC5-5CD59AF6006E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2539,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2565,7 +2574,7 @@
         <xdr:cNvPr id="5" name="椭圆 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E946DC36-2EA5-4566-89ED-3507C4AFE114}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E946DC36-2EA5-4566-89ED-3507C4AFE114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2638,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2694,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CB9022-3E9C-4DE9-8D73-3FE77278CEEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CB9022-3E9C-4DE9-8D73-3FE77278CEEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2703,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2709,6 +2718,174 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64678</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13226496" y="3418044"/>
+          <a:ext cx="6966504" cy="10956"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>151623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14062364" y="10369350"/>
+          <a:ext cx="6667500" cy="3381286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>606136</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>82351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13508182" y="13785273"/>
+          <a:ext cx="7187045" cy="2056623"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2757,7 +2934,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2809,7 +2986,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3003,14 +3180,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3020,16 +3197,16 @@
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="16.35546875" customWidth="1"/>
-    <col min="5" max="5" width="10.2109375" customWidth="1"/>
-    <col min="6" max="6" width="36.2109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -3053,7 +3230,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3250,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3093,7 +3270,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3113,7 +3290,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3133,7 +3310,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -3155,7 +3332,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3175,7 +3352,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24.95" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3195,7 +3372,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -3219,7 +3396,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24.95" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>202</v>
       </c>
@@ -3243,7 +3420,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24.95" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>204</v>
       </c>
@@ -3267,7 +3444,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="24.95" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>205</v>
       </c>
@@ -3291,7 +3468,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="24.95" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>206</v>
       </c>
@@ -3315,7 +3492,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="24.95" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>207</v>
       </c>
@@ -3339,7 +3516,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -3361,7 +3538,7 @@
       <c r="G15" s="30"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>198</v>
       </c>
@@ -3385,7 +3562,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="24.95" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -3405,7 +3582,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>180</v>
       </c>
@@ -3431,7 +3608,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24.95" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -3451,7 +3628,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="24.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -3471,7 +3648,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="24.95" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -3491,7 +3668,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="24.95" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -3511,7 +3688,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -3535,7 +3712,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="24.95" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3732,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="24.95" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -3575,7 +3752,7 @@
       <c r="G25" s="17"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="24.95" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -3595,7 +3772,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="24.95" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3615,7 +3792,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="24.95" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -3635,7 +3812,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="24.95" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -3655,7 +3832,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="24.95" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3675,7 +3852,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -3699,7 +3876,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>213</v>
       </c>
@@ -3723,7 +3900,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="24.95" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -3747,7 +3924,7 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="24.95" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -3767,7 +3944,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24.95" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -3787,7 +3964,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24.95" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -3807,7 +3984,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24.95" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
@@ -3829,7 +4006,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24.95" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -3849,7 +4026,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24.95" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -3869,7 +4046,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24.95" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -3889,7 +4066,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24.95" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -3909,7 +4086,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -3929,7 +4106,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="24.95" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -3949,7 +4126,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="24.95" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -3969,7 +4146,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="24.95" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -3989,7 +4166,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="24.95" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -4009,7 +4186,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="24.95" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -4029,7 +4206,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="24.95" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -4049,7 +4226,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="24.95" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -4069,7 +4246,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="24.95" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -4089,7 +4266,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
@@ -4113,7 +4290,7 @@
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>211</v>
       </c>
@@ -4139,7 +4316,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="24.95" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -4159,7 +4336,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="24.95" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -4179,7 +4356,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="24.95" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -4199,7 +4376,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="24.95" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -4219,7 +4396,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="24.95" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
@@ -4239,7 +4416,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="24.95" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -4259,7 +4436,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="24.95" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -4279,7 +4456,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
@@ -4303,7 +4480,7 @@
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="24.95" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
@@ -4323,7 +4500,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="24.95" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -4343,7 +4520,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>199</v>
       </c>
@@ -4367,13 +4544,13 @@
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="24.95" customHeight="1">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="24.95" customHeight="1">
       <c r="A65" s="26" t="s">
         <v>102</v>
       </c>
@@ -4390,20 +4567,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -4411,7 +4588,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -4419,32 +4596,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17">
       <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17">
       <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -4452,7 +4629,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="B9" s="25" t="s">
         <v>222</v>
       </c>
@@ -4472,12 +4649,12 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" s="21">
         <v>2.1</v>
       </c>
@@ -4489,7 +4666,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>2.2000000000000002</v>
       </c>
@@ -4501,7 +4678,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -4509,7 +4686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -4517,7 +4694,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -4542,7 +4719,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19">
       <c r="B19" s="23" t="s">
         <v>216</v>
       </c>
@@ -4563,7 +4740,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19">
       <c r="B20" s="23" t="s">
         <v>217</v>
       </c>
@@ -4578,7 +4755,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19">
       <c r="B21" s="23" t="s">
         <v>218</v>
       </c>
@@ -4587,7 +4764,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19">
       <c r="C26" s="24" t="s">
         <v>221</v>
       </c>
@@ -4596,7 +4773,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19">
       <c r="C28" s="25" t="s">
         <v>223</v>
       </c>
@@ -4612,7 +4789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19">
       <c r="C29" s="25" t="s">
         <v>224</v>
       </c>
@@ -4628,7 +4805,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19">
       <c r="C30" s="25" t="s">
         <v>225</v>
       </c>
@@ -4647,7 +4824,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19">
       <c r="C31" s="25" t="s">
         <v>226</v>
       </c>
@@ -4663,7 +4840,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19">
       <c r="C32" s="25" t="s">
         <v>227</v>
       </c>
@@ -4671,6 +4848,14 @@
       <c r="E32" s="25"/>
       <c r="L32" s="9" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="11">
+        <v>4</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4682,15 +4867,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5DC015-1F22-4ACA-BF06-504D6C0B7D2E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="AE20:AE80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA92" sqref="AA92"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD57" sqref="AD57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="20" spans="31:31">
+      <c r="AE20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="31:31">
+      <c r="AE80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B00AE-FABC-4AB2-B411-9DB8E859F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
@@ -14,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="239">
   <si>
     <t>Comment</t>
   </si>
@@ -2016,14 +2022,22 @@
   </si>
   <si>
     <t>拨码开关和按钮开关的封装需要你来做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选0430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLS4012HBX-150M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2308,14 +2322,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,7 +2373,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADC0C8E-6D99-4B1F-9D94-E019AF49AA26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2434,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B7B78-FF2E-415D-BFEA-69FF02E064F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2478,7 @@
         <xdr:cNvPr id="3" name="矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6A71DC-FB08-4EC3-BF1F-D9609B4D8C8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2544,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B14CF4-1E28-4140-AFC5-5CD59AF6006E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2588,7 @@
         <xdr:cNvPr id="5" name="椭圆 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E946DC36-2EA5-4566-89ED-3507C4AFE114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2652,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2708,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CB9022-3E9C-4DE9-8D73-3FE77278CEEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2752,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2794,7 +2808,7 @@
         <xdr:cNvPr id="10" name="直接箭头连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2850,7 +2864,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E826FE-8EAF-4461-A7D4-BB19D8E584EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,33 +3194,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="16.35546875" customWidth="1"/>
+    <col min="5" max="5" width="10.2109375" customWidth="1"/>
+    <col min="6" max="6" width="36.2109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1">
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -3230,7 +3244,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3264,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1">
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3270,7 +3284,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1">
+    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3290,7 +3304,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1">
+    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3310,7 +3324,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1">
+    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -3332,7 +3346,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1">
+    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3352,7 +3366,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1">
+    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3372,7 +3386,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1">
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -3396,7 +3410,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1">
+    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>202</v>
       </c>
@@ -3420,7 +3434,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1">
+    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>204</v>
       </c>
@@ -3444,7 +3458,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1">
+    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>205</v>
       </c>
@@ -3468,7 +3482,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1">
+    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>206</v>
       </c>
@@ -3492,7 +3506,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1">
+    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>207</v>
       </c>
@@ -3511,12 +3525,12 @@
       <c r="F14" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="30" t="s">
         <v>203</v>
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1">
+    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -3535,10 +3549,10 @@
       <c r="F15" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1">
+    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>198</v>
       </c>
@@ -3562,7 +3576,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1">
+    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -3582,7 +3596,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1">
+    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>180</v>
       </c>
@@ -3608,7 +3622,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1">
+    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -3628,7 +3642,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1">
+    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -3648,7 +3662,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1">
+    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -3668,7 +3682,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1">
+    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -3688,7 +3702,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1">
+    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -3712,7 +3726,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1">
+    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -3732,7 +3746,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1">
+    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -3749,10 +3763,12 @@
         <v>1</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="17" t="s">
+        <v>237</v>
+      </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="24.95" customHeight="1">
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -3772,7 +3788,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="24.95" customHeight="1">
+    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3792,7 +3808,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="24.95" customHeight="1">
+    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -3812,7 +3828,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="24.95" customHeight="1">
+    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -3832,7 +3848,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="24.95" customHeight="1">
+    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3852,7 +3868,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="24.95" customHeight="1">
+    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -3876,7 +3892,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="24.95" customHeight="1">
+    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>213</v>
       </c>
@@ -3900,7 +3916,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="24.95" customHeight="1">
+    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -3924,7 +3940,7 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="24.95" customHeight="1">
+    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -3944,7 +3960,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="24.95" customHeight="1">
+    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -3964,7 +3980,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="24.95" customHeight="1">
+    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -3984,7 +4000,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" ht="24.95" customHeight="1">
+    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
@@ -4006,7 +4022,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" ht="24.95" customHeight="1">
+    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -4026,7 +4042,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" ht="24.95" customHeight="1">
+    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -4046,7 +4062,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="24.95" customHeight="1">
+    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -4066,7 +4082,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="24.95" customHeight="1">
+    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -4086,7 +4102,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="24.95" customHeight="1">
+    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -4106,7 +4122,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="24.95" customHeight="1">
+    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -4126,7 +4142,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="24.95" customHeight="1">
+    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -4146,7 +4162,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="24.95" customHeight="1">
+    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -4166,7 +4182,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="24.95" customHeight="1">
+    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -4186,7 +4202,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="24.95" customHeight="1">
+    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -4206,7 +4222,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="24.95" customHeight="1">
+    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -4226,7 +4242,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="24.95" customHeight="1">
+    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -4246,7 +4262,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="24.95" customHeight="1">
+    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -4266,7 +4282,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="24.95" customHeight="1">
+    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
@@ -4290,7 +4306,7 @@
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" ht="24.95" customHeight="1">
+    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>211</v>
       </c>
@@ -4316,7 +4332,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="24.95" customHeight="1">
+    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -4336,7 +4352,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="24.95" customHeight="1">
+    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -4356,7 +4372,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="24.95" customHeight="1">
+    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -4376,7 +4392,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" ht="24.95" customHeight="1">
+    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -4396,7 +4412,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="24.95" customHeight="1">
+    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
@@ -4416,7 +4432,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" ht="24.95" customHeight="1">
+    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -4436,7 +4452,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" ht="24.95" customHeight="1">
+    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -4456,7 +4472,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" ht="24.95" customHeight="1">
+    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
@@ -4480,7 +4496,7 @@
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" ht="24.95" customHeight="1">
+    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
@@ -4500,9 +4516,9 @@
       <c r="G61" s="17"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" ht="24.95" customHeight="1">
+    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>159</v>
@@ -4520,7 +4536,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" ht="24.95" customHeight="1">
+    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>199</v>
       </c>
@@ -4544,13 +4560,13 @@
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" ht="24.95" customHeight="1">
+    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="24.95" customHeight="1">
+    <row r="65" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
         <v>102</v>
       </c>
@@ -4567,20 +4583,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -4588,7 +4604,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -4596,32 +4612,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -4629,7 +4645,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
         <v>222</v>
       </c>
@@ -4649,12 +4665,12 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>2.1</v>
       </c>
@@ -4666,7 +4682,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>2.2000000000000002</v>
       </c>
@@ -4678,7 +4694,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -4686,7 +4702,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -4694,7 +4710,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -4719,7 +4735,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>216</v>
       </c>
@@ -4740,7 +4756,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
         <v>217</v>
       </c>
@@ -4755,7 +4771,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
         <v>218</v>
       </c>
@@ -4764,7 +4780,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C26" s="24" t="s">
         <v>221</v>
       </c>
@@ -4773,7 +4789,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C28" s="25" t="s">
         <v>223</v>
       </c>
@@ -4789,7 +4805,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C29" s="25" t="s">
         <v>224</v>
       </c>
@@ -4805,7 +4821,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C30" s="25" t="s">
         <v>225</v>
       </c>
@@ -4824,7 +4840,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C31" s="25" t="s">
         <v>226</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C32" s="25" t="s">
         <v>227</v>
       </c>
@@ -4850,11 +4866,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>4</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4867,21 +4883,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="AE20:AE80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD57" sqref="AD57"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z58" sqref="Z58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="20" spans="31:31">
+    <row r="20" spans="31:31" x14ac:dyDescent="0.35">
       <c r="AE20" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="31:31">
+    <row r="80" spans="31:31" x14ac:dyDescent="0.35">
       <c r="AE80" t="s">
         <v>235</v>
       </c>

--- a/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
+++ b/PCBA/TemperatureController/Project Outputs for TemperatureController/mmy/TemperatureController.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\A-T2022\TemperatureController\PCBA\TemperatureController\Project Outputs for TemperatureController\mmy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B00AE-FABC-4AB2-B411-9DB8E859F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TemperatureController" sheetId="1" r:id="rId1"/>
@@ -21,8 +15,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TemperatureController!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2036,8 +2030,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,7 +2367,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2428,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2472,7 @@
         <xdr:cNvPr id="3" name="矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2538,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2582,7 @@
         <xdr:cNvPr id="5" name="椭圆 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2646,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2702,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2746,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2802,7 @@
         <xdr:cNvPr id="10" name="直接箭头连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2858,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2900,6 +2894,156 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>301233</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>121226</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25239415" y="9924693"/>
+          <a:ext cx="12289084" cy="5401897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>39483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="23310273" y="13028119"/>
+          <a:ext cx="1281545" cy="549336"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>393989</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>33770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25284546" y="15361227"/>
+          <a:ext cx="10438534" cy="4588452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3194,33 +3338,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="16.35546875" customWidth="1"/>
-    <col min="5" max="5" width="10.2109375" customWidth="1"/>
-    <col min="6" max="6" width="36.2109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.2109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>163</v>
       </c>
@@ -3244,7 +3388,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3264,7 +3408,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="24.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3284,7 +3428,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3304,7 +3448,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="24.95" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3324,7 +3468,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
@@ -3346,7 +3490,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="24.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3366,7 +3510,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="24.95" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3386,7 +3530,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="24.95" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -3410,7 +3554,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="24.95" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>202</v>
       </c>
@@ -3434,7 +3578,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="24.95" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>204</v>
       </c>
@@ -3458,7 +3602,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="24.95" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>205</v>
       </c>
@@ -3482,7 +3626,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="24.95" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>206</v>
       </c>
@@ -3506,7 +3650,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="24.95" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>207</v>
       </c>
@@ -3530,7 +3674,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
@@ -3552,7 +3696,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>198</v>
       </c>
@@ -3576,7 +3720,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="24.95" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -3596,7 +3740,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>180</v>
       </c>
@@ -3622,7 +3766,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="24.95" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -3642,7 +3786,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="24.95" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -3662,7 +3806,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="24.95" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -3682,7 +3826,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="24.95" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -3702,7 +3846,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>170</v>
       </c>
@@ -3726,7 +3870,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="24.95" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -3746,7 +3890,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="24.95" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -3768,7 +3912,7 @@
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="24.95" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -3788,7 +3932,7 @@
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="24.95" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3808,7 +3952,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="24.95" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -3828,7 +3972,7 @@
       <c r="G28" s="17"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="24.95" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -3848,7 +3992,7 @@
       <c r="G29" s="17"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="24.95" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3868,7 +4012,7 @@
       <c r="G30" s="17"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -3892,7 +4036,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>213</v>
       </c>
@@ -3916,7 +4060,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="24.95" customHeight="1">
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
@@ -3940,7 +4084,7 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="24.95" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -3960,7 +4104,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="24.95" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
@@ -3980,7 +4124,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="24.95" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -4000,7 +4144,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="24.95" customHeight="1">
       <c r="A37" s="7" t="s">
         <v>172</v>
       </c>
@@ -4022,7 +4166,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="24.95" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -4042,7 +4186,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="24.95" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -4062,7 +4206,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="24.95" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>108</v>
       </c>
@@ -4082,7 +4226,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="24.95" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -4102,7 +4246,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="24.95" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -4122,7 +4266,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="24.95" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -4142,7 +4286,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="24.95" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
@@ -4162,7 +4306,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="24.95" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>118</v>
       </c>
@@ -4182,7 +4326,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="24.95" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -4202,7 +4346,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="24.95" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>122</v>
       </c>
@@ -4222,7 +4366,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="24.95" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>124</v>
       </c>
@@ -4242,7 +4386,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="24.95" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>126</v>
       </c>
@@ -4262,7 +4406,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="24.95" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -4282,7 +4426,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>173</v>
       </c>
@@ -4306,7 +4450,7 @@
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>211</v>
       </c>
@@ -4332,7 +4476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="24.95" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>137</v>
       </c>
@@ -4352,7 +4496,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="24.95" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
@@ -4372,7 +4516,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="24.95" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>142</v>
       </c>
@@ -4392,7 +4536,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="24.95" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>144</v>
       </c>
@@ -4412,7 +4556,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="24.95" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>146</v>
       </c>
@@ -4432,7 +4576,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="24.95" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -4452,7 +4596,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="24.95" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
@@ -4472,7 +4616,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
         <v>154</v>
       </c>
@@ -4496,7 +4640,7 @@
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="24.95" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
@@ -4516,7 +4660,7 @@
       <c r="G61" s="17"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="24.95" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>238</v>
       </c>
@@ -4536,7 +4680,7 @@
       <c r="G62" s="17"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
         <v>199</v>
       </c>
@@ -4560,13 +4704,13 @@
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="24.95" customHeight="1">
       <c r="E64">
         <f>SUM(E3:E63)</f>
         <v>920</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" ht="24.95" customHeight="1">
       <c r="A65" s="26" t="s">
         <v>102</v>
       </c>
@@ -4583,20 +4727,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="A1" s="11">
         <v>1</v>
       </c>
@@ -4604,7 +4748,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17">
       <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -4612,32 +4756,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17">
       <c r="B3" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="B4" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17">
       <c r="B5" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="B6" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="B7" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="A8" s="10">
         <v>1.2</v>
       </c>
@@ -4645,7 +4789,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="B9" s="25" t="s">
         <v>222</v>
       </c>
@@ -4665,12 +4809,12 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="A12" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" s="21">
         <v>2.1</v>
       </c>
@@ -4682,7 +4826,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" s="19">
         <v>2.2000000000000002</v>
       </c>
@@ -4694,7 +4838,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" s="10">
         <v>2.2999999999999998</v>
       </c>
@@ -4702,7 +4846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" s="10">
         <v>2.4</v>
       </c>
@@ -4710,7 +4854,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19">
       <c r="A18" s="11">
         <v>3</v>
       </c>
@@ -4735,7 +4879,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19">
       <c r="B19" s="23" t="s">
         <v>216</v>
       </c>
@@ -4756,7 +4900,7 @@
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19">
       <c r="B20" s="23" t="s">
         <v>217</v>
       </c>
@@ -4771,7 +4915,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19">
       <c r="B21" s="23" t="s">
         <v>218</v>
       </c>
@@ -4780,7 +4924,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19">
       <c r="C26" s="24" t="s">
         <v>221</v>
       </c>
@@ -4789,7 +4933,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19">
       <c r="C28" s="25" t="s">
         <v>223</v>
       </c>
@@ -4805,7 +4949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19">
       <c r="C29" s="25" t="s">
         <v>224</v>
       </c>
@@ -4821,7 +4965,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19">
       <c r="C30" s="25" t="s">
         <v>225</v>
       </c>
@@ -4840,7 +4984,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19">
       <c r="C31" s="25" t="s">
         <v>226</v>
       </c>
@@ -4856,7 +5000,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19">
       <c r="C32" s="25" t="s">
         <v>227</v>
       </c>
@@ -4866,7 +5010,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2">
       <c r="A34" s="11">
         <v>4</v>
       </c>
@@ -4883,21 +5027,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="AE20:AE80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z58" sqref="Z58"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AN122" sqref="AN122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="20" spans="31:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="31:31">
       <c r="AE20" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="31:31" x14ac:dyDescent="0.35">
+    <row r="80" spans="31:31">
       <c r="AE80" t="s">
         <v>235</v>
       </c>
